--- a/testcase_bugreport.xlsx
+++ b/testcase_bugreport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TestProject\WebSiteFormAutoTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0AC053-C6DC-4ADA-B141-D0E6113C803C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4D45C6-B4D4-4FB6-8FF9-057BEBB9D8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4AA440EB-7718-4D26-9FC7-9E4145680954}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4AA440EB-7718-4D26-9FC7-9E4145680954}"/>
   </bookViews>
   <sheets>
     <sheet name="test_case" sheetId="1" r:id="rId1"/>
@@ -305,9 +305,6 @@
     <t>Ожидаемый результат</t>
   </si>
   <si>
-    <t>Полученный результат</t>
-  </si>
-  <si>
     <t>Не переадресовывает на страницу login, 
 показывает ошибку о неправильном вводе данных</t>
   </si>
@@ -337,6 +334,9 @@
 2. Заполнить поле email значением содержащим спецсимвол, например ivanivan222@rambler.com
 3. Заполнить поле name значением 'Иван&lt;
 4.Нажать Sign up</t>
+  </si>
+  <si>
+    <t>Фактический результат</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -619,46 +619,104 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -670,95 +728,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1079,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A390E9A-E5E3-455E-831C-8D7C276D01B2}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -1118,13 +1103,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="40" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="3">
@@ -1133,60 +1118,60 @@
       <c r="E2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="29"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="30"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="15">
+      <c r="A4" s="35"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="37">
         <v>3</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="30"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="31"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="40" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="3">
@@ -1195,64 +1180,64 @@
       <c r="E6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="29"/>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" spans="1:8" ht="25" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="24"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="3">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="30"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="33"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="3">
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="30"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="34"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="3">
         <v>4</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="51"/>
     </row>
     <row r="10" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="6">
@@ -1261,41 +1246,41 @@
       <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="35"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="6">
         <v>2</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="35"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="6">
         <v>3</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="35"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
@@ -1319,16 +1304,16 @@
       <c r="G13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="39"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="32" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="3">
@@ -1337,53 +1322,53 @@
       <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="57" t="str">
+      <c r="H14" s="21" t="str">
         <f>bug_report!$A$2</f>
         <v>b1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="25" x14ac:dyDescent="0.35">
-      <c r="A15" s="35"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="37"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="3">
         <v>2</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="57"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="35"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="37"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="3">
         <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="57"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="32" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="3">
@@ -1392,53 +1377,53 @@
       <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="57" t="str">
+      <c r="H17" s="21" t="str">
         <f>bug_report!$A$3</f>
         <v>b2</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="25" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="3">
         <v>2</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="57"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="45"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="48"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="11">
         <v>3</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="57"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="33" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="3">
@@ -1447,46 +1432,46 @@
       <c r="E20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="35"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="20">
+      <c r="A21" s="18"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="47">
         <v>2</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="35"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="35"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="32" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="3">
@@ -1495,49 +1480,49 @@
       <c r="E23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="57" t="str">
+      <c r="H23" s="21" t="str">
         <f>bug_report!$A$4</f>
         <v>b3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="46"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="15">
+      <c r="A24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="37">
         <v>2</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="57"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="47"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="57"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="32" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="3">
@@ -1546,50 +1531,50 @@
       <c r="E26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="35"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" ht="25" x14ac:dyDescent="0.35">
-      <c r="A27" s="46"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="3">
         <v>2</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="35"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="47"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="3">
         <v>3</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="35"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="3">
@@ -1598,134 +1583,134 @@
       <c r="E29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="35"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" ht="25" x14ac:dyDescent="0.35">
-      <c r="A30" s="55"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="44"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="3">
         <v>2</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="35"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="55"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="44"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="3">
         <v>3</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="35"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="55"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="44"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="3">
         <v>4</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="35"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" ht="25" x14ac:dyDescent="0.35">
-      <c r="A33" s="55"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="44"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="3">
         <v>5</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="35"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="55"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="44"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="3">
         <v>6</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="35"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" ht="25" x14ac:dyDescent="0.35">
-      <c r="A35" s="55"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="44"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="3">
         <v>7</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="35"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" ht="25" x14ac:dyDescent="0.35">
-      <c r="A36" s="55"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="44"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="3">
         <v>8</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="35"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="55"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="44"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="11">
         <v>9</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="35"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="3">
@@ -1734,139 +1719,89 @@
       <c r="E38" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="40" t="s">
+      <c r="F38" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="51" t="s">
+      <c r="G38" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="57" t="str">
+      <c r="H38" s="21" t="str">
         <f>bug_report!$A$5</f>
         <v>b4</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="25" x14ac:dyDescent="0.35">
-      <c r="A39" s="35"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="35"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="3">
         <v>2</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="35"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="57"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="35"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="49">
+      <c r="A40" s="18"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="3">
         <v>3</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="57"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="35"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="49">
+      <c r="A41" s="18"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="3">
         <v>4</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="57"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="35"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="49">
+      <c r="A42" s="18"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="3">
         <v>5</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="57"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="35"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="49">
+      <c r="A43" s="18"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="3">
         <v>6</v>
       </c>
-      <c r="E43" s="59" t="s">
+      <c r="E43" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="57"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="G38:G43"/>
-    <mergeCell ref="H38:H43"/>
-    <mergeCell ref="H29:H37"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="F29:F37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="G29:G37"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="H20:H22"/>
@@ -1883,6 +1818,56 @@
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="D21:D22"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="F29:F37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="G38:G43"/>
+    <mergeCell ref="H38:H43"/>
+    <mergeCell ref="H29:H37"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="G29:G37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H14:H16" location="bug_report!R2C1" display="bug_report!R2C1" xr:uid="{4277FE21-C12F-46EE-B038-924B21AFB231}"/>
@@ -1900,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023BBD9A-9D14-4C38-B758-72EF9BBDCD5C}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1914,10 +1899,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -1930,7 +1915,7 @@
         <v>81</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="116" x14ac:dyDescent="0.35">
@@ -1944,13 +1929,13 @@
         <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
@@ -1963,54 +1948,54 @@
       <c r="C3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="61" t="s">
+      <c r="D3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
